--- a/excel/LoadingData.xlsx
+++ b/excel/LoadingData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEB9250-0F13-3A42-9B5F-020A0E983702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7CB444-53A9-B24D-8EE2-084E0E1BA95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9580" yWindow="4020" windowWidth="19820" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,10 +87,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>sp_bg_myhome_a</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>[</t>
     </r>
@@ -114,6 +110,10 @@
       </rPr>
       <t>]</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>myhome_background</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +471,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -511,18 +511,18 @@
         <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">

--- a/excel/LoadingData.xlsx
+++ b/excel/LoadingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7CB444-53A9-B24D-8EE2-084E0E1BA95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95516536-CD02-E248-A074-9DDC2CE79090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9580" yWindow="4020" windowWidth="19820" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14240" yWindow="2620" windowWidth="19820" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loading" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>string</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -113,7 +113,199 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>myhome_background</t>
+    <t>LoadingType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum&lt;LoadingType&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>솜사탕상점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로딩화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파우더상점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로딩화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이불상점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로딩화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>솜사탕상점 로딩화면</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파우더상점 로딩화면</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이불상점 로딩화면</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_myhome_background</t>
+  </si>
+  <si>
+    <t>CottonCandyShop</t>
+  </si>
+  <si>
+    <t>PowderShop</t>
+  </si>
+  <si>
+    <t>BeddingShop</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -124,7 +316,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$₩-412]#,##0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -188,6 +380,13 @@
       <color rgb="FF000000"/>
       <name val="Malgun Gothic"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -211,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -234,11 +433,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -250,6 +460,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -471,14 +685,15 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21" style="2" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
@@ -491,6 +706,9 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -502,6 +720,9 @@
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" s="6" t="s">
@@ -511,7 +732,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
@@ -522,16 +746,54 @@
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="13"/>
-    <row r="7" spans="1:5" ht="13"/>
+    <row r="6" spans="1:5" ht="15">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="12" spans="1:5" ht="13">
       <c r="E12" s="1"/>
     </row>
